--- a/eva/data.xlsx
+++ b/eva/data.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minghe/llm4faas/eva/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E1005D-0718-1649-AF27-2AEF32FE8C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="16500" yWindow="0" windowWidth="12300" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -968,8 +973,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -978,7 +994,7 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -993,110 +1009,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="15"/>
-    <cellStyle name="Currency" xfId="16"/>
-    <cellStyle name="Currency [0]" xfId="17"/>
-    <cellStyle name="Comma" xfId="18"/>
-    <cellStyle name="Comma [0]" xfId="19"/>
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1419,32 +1360,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="7.71428571428571" customWidth="1"/>
-    <col min="4" max="4" width="4.14285714285714" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="26.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
     <col min="7" max="7" width="149" customWidth="1"/>
-    <col min="8" max="8" width="115.285714285714" customWidth="1"/>
-    <col min="9" max="9" width="45.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="56.4285714285714" customWidth="1"/>
-    <col min="11" max="11" width="51.8571428571429" customWidth="1"/>
-    <col min="12" max="12" width="29.8571428571429" customWidth="1"/>
-    <col min="13" max="13" width="52.7142857142857" customWidth="1"/>
-    <col min="14" max="14" width="255.714285714286" customWidth="1"/>
-    <col min="15" max="15" width="13.1428571428571" customWidth="1"/>
-    <col min="16" max="16" width="15.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="115.33203125" customWidth="1"/>
+    <col min="9" max="9" width="45.5" customWidth="1"/>
+    <col min="10" max="10" width="56.5" customWidth="1"/>
+    <col min="11" max="11" width="51.83203125" customWidth="1"/>
+    <col min="12" max="12" width="29.83203125" customWidth="1"/>
+    <col min="13" max="13" width="52.6640625" customWidth="1"/>
+    <col min="14" max="14" width="255.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1544,7 +1487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1594,7 +1537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12.75">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1644,7 +1587,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12.75">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1694,7 +1637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.75">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1744,7 +1687,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12.75">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1794,7 +1737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12.75">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1844,7 +1787,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12.75">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1894,7 +1837,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.75">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1944,7 +1887,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.75">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1994,7 +1937,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2044,7 +1987,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2094,7 +2037,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="12.75">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2144,7 +2087,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12.75">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2194,7 +2137,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.75">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2244,7 +2187,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="12.75">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2294,7 +2237,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="12.75">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2344,7 +2287,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="12.75">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>19</v>
       </c>
@@ -2394,7 +2337,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.75">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20</v>
       </c>
@@ -2444,7 +2387,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="12.75">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>21</v>
       </c>
@@ -2494,7 +2437,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="12.75">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>22</v>
       </c>
@@ -2544,7 +2487,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="12.75">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>23</v>
       </c>
@@ -2594,7 +2537,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="12.75">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>24</v>
       </c>
@@ -2644,7 +2587,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="12.75">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>25</v>
       </c>
@@ -2694,7 +2637,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="12.75">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>26</v>
       </c>
@@ -2744,7 +2687,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="12.75">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>27</v>
       </c>
@@ -2796,6 +2739,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>